--- a/table2.xlsx
+++ b/table2.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
     <sheet name="SQL code" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Details!$A$1:$P$256</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1079">
   <si>
     <t>bill_charge_audit_log</t>
   </si>
@@ -3072,6 +3073,201 @@
   </si>
   <si>
     <t>create PROC CONTENTS equivalent</t>
+  </si>
+  <si>
+    <t>Not downloaded: ERROR:  array size exceeds the maximum allowed (1073741823)</t>
+  </si>
+  <si>
+    <t>The size is too big, need to investigate</t>
+  </si>
+  <si>
+    <t>create table patient_section_details00 as select * from iaim.patient_section_details limit 10000;</t>
+  </si>
+  <si>
+    <t>create table patient_section_forms00 as select * from iaim.patient_section_forms limit 10000;</t>
+  </si>
+  <si>
+    <t>create table patient_section_values00 as select * from iaim.patient_section_values limit 10000;</t>
+  </si>
+  <si>
+    <t>3 tables with a lot of data:</t>
+  </si>
+  <si>
+    <t>ip_prescriptions</t>
+  </si>
+  <si>
+    <t>section_item_id, item_type, section_detail_id, mr_no, patient_id, section_id, section_status, user_name, mod_time, generic_form_id</t>
+  </si>
+  <si>
+    <t>section_detail_id, form_id, form_type, display_order</t>
+  </si>
+  <si>
+    <t>field_id, option_id, option_remarks, user_name, mod_time, section_detail_id, date_time</t>
+  </si>
+  <si>
+    <t>Section details</t>
+  </si>
+  <si>
+    <t>Section forms</t>
+  </si>
+  <si>
+    <t>Patient section values</t>
+  </si>
+  <si>
+    <t>iaim.patient_section_details</t>
+  </si>
+  <si>
+    <t>iaim.patient_section_forms</t>
+  </si>
+  <si>
+    <t>iaim.patient_section_values</t>
+  </si>
+  <si>
+    <t>section_master</t>
+  </si>
+  <si>
+    <t>section_field_desc</t>
+  </si>
+  <si>
+    <t>section_item_id</t>
+  </si>
+  <si>
+    <t>Patient_section_details</t>
+  </si>
+  <si>
+    <t>section_detail_id</t>
+  </si>
+  <si>
+    <t>Patient_section_forms</t>
+  </si>
+  <si>
+    <t>Patient_section_values</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>option_id</t>
+  </si>
+  <si>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>section_status</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>mod_time</t>
+  </si>
+  <si>
+    <t>form_type</t>
+  </si>
+  <si>
+    <t>generic_form_id</t>
+  </si>
+  <si>
+    <t>display_order</t>
+  </si>
+  <si>
+    <t>option_remarks</t>
+  </si>
+  <si>
+    <t>Section_field_desc</t>
+  </si>
+  <si>
+    <t>Section_field_options</t>
+  </si>
+  <si>
+    <t>Section_master</t>
+  </si>
+  <si>
+    <t>section_title</t>
+  </si>
+  <si>
+    <t>linked_to</t>
+  </si>
+  <si>
+    <t>allow_all_normal</t>
+  </si>
+  <si>
+    <t>section_mandatory</t>
+  </si>
+  <si>
+    <t>option_value</t>
+  </si>
+  <si>
+    <t>value_code</t>
+  </si>
+  <si>
+    <t>phrase_category_id</t>
+  </si>
+  <si>
+    <t>pattern_id</t>
+  </si>
+  <si>
+    <t>old_option_id</t>
+  </si>
+  <si>
+    <t>create table patient_section_details00 as select section_item_id, item_type, section_detail_id, mr_no, patient_id, section_id, section_status, user_name, mod_time, generic_form_id from iaim.patient_section_details limit 20000;</t>
+  </si>
+  <si>
+    <t>create table patient_section_forms00 as select section_detail_id, form_id, form_type, display_order from iaim.patient_section_forms limit 20000;</t>
+  </si>
+  <si>
+    <t>create table patient_section_values00 as select field_id, option_id, option_remarks, user_name, mod_time, section_detail_id, date_time from iaim.patient_section_values limit 20000;</t>
+  </si>
+  <si>
+    <t>create table comb1 as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select iaim.patient_section_details.*, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaim.patient_section_forms.form_id, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaim.patient_section_forms.form_type, </t>
+  </si>
+  <si>
+    <t>iaim.patient_section_forms.display_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from iaim.patient_section_details </t>
+  </si>
+  <si>
+    <t>left join iaim.patient_section_forms</t>
+  </si>
+  <si>
+    <t>on iaim.patient_section_details.section_detail_id = iaim.patient_section_forms.section_detail_id;</t>
+  </si>
+  <si>
+    <t>Join code</t>
+  </si>
+  <si>
+    <t>Create table comb2 as</t>
+  </si>
+  <si>
+    <t>select comb1.*,</t>
+  </si>
+  <si>
+    <t>iaim.section_master.section_mandatory,</t>
+  </si>
+  <si>
+    <t>iaim.section_master.section_title</t>
+  </si>
+  <si>
+    <t>from comb1</t>
+  </si>
+  <si>
+    <t>left join iaim.section_master</t>
+  </si>
+  <si>
+    <t>on comb1.section_id = iaim.section_master.section_id;</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3786,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3615,6 +3811,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3671,6 +3873,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174467</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="6346667" cy="1473333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>356734</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38101" y="1600200"/>
+          <a:ext cx="3633333" cy="1526666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3429001"/>
+          <a:ext cx="5500000" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3940,7 +4261,7 @@
   <dimension ref="A1:D915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="C793" sqref="C793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,7 +5512,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -5205,7 +5526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -6171,7 +6492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -6185,7 +6506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -7753,7 +8074,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>256</v>
       </c>
@@ -7767,7 +8088,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>256</v>
       </c>
@@ -12807,7 +13128,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>631</v>
       </c>
@@ -12821,7 +13142,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>631</v>
       </c>
@@ -14879,7 +15200,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>753</v>
       </c>
@@ -14907,7 +15228,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>753</v>
       </c>
@@ -14977,7 +15298,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>756</v>
       </c>
@@ -15033,7 +15354,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>756</v>
       </c>
@@ -16759,9 +17080,9 @@
   <autoFilter ref="A1:D915">
     <filterColumn colId="0">
       <filters>
-        <filter val="patient_pdf_form_doc_values"/>
-        <filter val="patient_pdf_form_doc_values_audit_log"/>
-        <filter val="patient_pdf_form_doc_values_index"/>
+        <filter val="patient_general_docs"/>
+        <filter val="patient_general_docs_audit_log"/>
+        <filter val="patient_general_docs_pkey"/>
       </filters>
     </filterColumn>
     <sortState ref="A602:D897">
@@ -16777,8 +17098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="P120" workbookViewId="0">
+      <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16790,7 +17111,8 @@
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
     <col min="18" max="18" width="45.140625" customWidth="1"/>
     <col min="19" max="19" width="77.140625" customWidth="1"/>
-    <col min="20" max="20" width="45.42578125" customWidth="1"/>
+    <col min="20" max="20" width="57.42578125" customWidth="1"/>
+    <col min="21" max="21" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" x14ac:dyDescent="0.25">
@@ -16819,7 +17141,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>713</v>
       </c>
@@ -16843,11 +17165,11 @@
         <v>create table action_rights as select 'action_rights'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from action_rights00 , jsonb_each_text(to_jsonb(action_rights00)) group by key;</v>
       </c>
       <c r="T2" s="2" t="str">
-        <f>CONCATENATE("\copy", " ", Q2, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q2, ".csv' CSV HEADER DELIMITER ',';")</f>
-        <v>\copy action_rights TO 'd:/hospital_data/ProgresSQL/data_chk/action_rights.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("\copy", " ", Q2, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q2, ".csv' CSV HEADER DELIMITER ',';drop table ", Q2, ";")</f>
+        <v>\copy action_rights TO 'd:/hospital_data/ProgresSQL/data_chk/action_rights.csv' CSV HEADER DELIMITER ',';drop table action_rights;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>615</v>
       </c>
@@ -16856,7 +17178,7 @@
         <v>create table admission as select * from iaim.admission limit 1000;</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C2:C33" si="1">CONCATENATE("\copy", " ", A3, " TO 'd:/hospital_data/ProgresSQL/data_chk/", A3, ".csv' CSV HEADER DELIMITER ',';")</f>
+        <f t="shared" ref="C3:C33" si="1">CONCATENATE("\copy", " ", A3, " TO 'd:/hospital_data/ProgresSQL/data_chk/", A3, ".csv' CSV HEADER DELIMITER ',';")</f>
         <v>\copy admission TO 'd:/hospital_data/ProgresSQL/data_chk/admission.csv' CSV HEADER DELIMITER ',';</v>
       </c>
       <c r="D3" t="s">
@@ -16886,8 +17208,8 @@
         <v>create table admission as select 'admission'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from admission00 , jsonb_each_text(to_jsonb(admission00)) group by key;</v>
       </c>
       <c r="T3" s="2" t="str">
-        <f t="shared" ref="T3:T66" si="4">CONCATENATE("\copy", " ", Q3, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q3, ".csv' CSV HEADER DELIMITER ',';")</f>
-        <v>\copy admission TO 'd:/hospital_data/ProgresSQL/data_chk/admission.csv' CSV HEADER DELIMITER ',';</v>
+        <f t="shared" ref="T3:T66" si="4">CONCATENATE("\copy", " ", Q3, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q3, ".csv' CSV HEADER DELIMITER ',';drop table ", Q3, ";")</f>
+        <v>\copy admission TO 'd:/hospital_data/ProgresSQL/data_chk/admission.csv' CSV HEADER DELIMITER ',';drop table admission;</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -16915,7 +17237,7 @@
       </c>
       <c r="T4" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy anesthesia_type_charges TO 'd:/hospital_data/ProgresSQL/data_chk/anesthesia_type_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy anesthesia_type_charges TO 'd:/hospital_data/ProgresSQL/data_chk/anesthesia_type_charges.csv' CSV HEADER DELIMITER ',';drop table anesthesia_type_charges;</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -16943,10 +17265,10 @@
       </c>
       <c r="T5" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy area_master TO 'd:/hospital_data/ProgresSQL/data_chk/area_master.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy area_master TO 'd:/hospital_data/ProgresSQL/data_chk/area_master.csv' CSV HEADER DELIMITER ',';drop table area_master;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>715</v>
       </c>
@@ -16971,10 +17293,10 @@
       </c>
       <c r="T6" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bed_details TO 'd:/hospital_data/ProgresSQL/data_chk/bed_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy bed_details TO 'd:/hospital_data/ProgresSQL/data_chk/bed_details.csv' CSV HEADER DELIMITER ',';drop table bed_details;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -16999,7 +17321,7 @@
       </c>
       <c r="T7" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill TO 'd:/hospital_data/ProgresSQL/data_chk/bill.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill TO 'd:/hospital_data/ProgresSQL/data_chk/bill.csv' CSV HEADER DELIMITER ',';drop table bill;</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17027,7 +17349,7 @@
       </c>
       <c r="T8" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_activity_charge TO 'd:/hospital_data/ProgresSQL/data_chk/bill_activity_charge.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_activity_charge TO 'd:/hospital_data/ProgresSQL/data_chk/bill_activity_charge.csv' CSV HEADER DELIMITER ',';drop table bill_activity_charge;</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17055,7 +17377,7 @@
       </c>
       <c r="T9" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_adjustment TO 'd:/hospital_data/ProgresSQL/data_chk/bill_adjustment.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_adjustment TO 'd:/hospital_data/ProgresSQL/data_chk/bill_adjustment.csv' CSV HEADER DELIMITER ',';drop table bill_adjustment;</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17083,10 +17405,10 @@
       </c>
       <c r="T10" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/bill_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy bill_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/bill_audit_log.csv' CSV HEADER DELIMITER ',';drop table bill_audit_log;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -17111,7 +17433,7 @@
       </c>
       <c r="T11" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_charge TO 'd:/hospital_data/ProgresSQL/data_chk/bill_charge.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_charge TO 'd:/hospital_data/ProgresSQL/data_chk/bill_charge.csv' CSV HEADER DELIMITER ',';drop table bill_charge;</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17139,7 +17461,7 @@
       </c>
       <c r="T12" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_charge_adjustment TO 'd:/hospital_data/ProgresSQL/data_chk/bill_charge_adjustment.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_charge_adjustment TO 'd:/hospital_data/ProgresSQL/data_chk/bill_charge_adjustment.csv' CSV HEADER DELIMITER ',';drop table bill_charge_adjustment;</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17167,7 +17489,7 @@
       </c>
       <c r="T13" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_charge_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/bill_charge_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_charge_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/bill_charge_audit_log.csv' CSV HEADER DELIMITER ',';drop table bill_charge_audit_log;</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17195,7 +17517,7 @@
       </c>
       <c r="T14" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_receipts TO 'd:/hospital_data/ProgresSQL/data_chk/bill_receipts.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_receipts TO 'd:/hospital_data/ProgresSQL/data_chk/bill_receipts.csv' CSV HEADER DELIMITER ',';drop table bill_receipts;</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17223,7 +17545,7 @@
       </c>
       <c r="T15" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy bill_receipts_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/bill_receipts_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy bill_receipts_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/bill_receipts_audit_log.csv' CSV HEADER DELIMITER ',';drop table bill_receipts_audit_log;</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17251,7 +17573,7 @@
       </c>
       <c r="T16" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy complaintslog TO 'd:/hospital_data/ProgresSQL/data_chk/complaintslog.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy complaintslog TO 'd:/hospital_data/ProgresSQL/data_chk/complaintslog.csv' CSV HEADER DELIMITER ',';drop table complaintslog;</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17279,7 +17601,7 @@
       </c>
       <c r="T17" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy consultation_charges TO 'd:/hospital_data/ProgresSQL/data_chk/consultation_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy consultation_charges TO 'd:/hospital_data/ProgresSQL/data_chk/consultation_charges.csv' CSV HEADER DELIMITER ',';drop table consultation_charges;</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17307,7 +17629,7 @@
       </c>
       <c r="T18" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy consultation_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/consultation_org_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy consultation_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/consultation_org_details.csv' CSV HEADER DELIMITER ',';drop table consultation_org_details;</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17335,7 +17657,7 @@
       </c>
       <c r="T19" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy deposit_setoff_total TO 'd:/hospital_data/ProgresSQL/data_chk/deposit_setoff_total.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy deposit_setoff_total TO 'd:/hospital_data/ProgresSQL/data_chk/deposit_setoff_total.csv' CSV HEADER DELIMITER ',';drop table deposit_setoff_total;</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17366,7 +17688,7 @@
       </c>
       <c r="T20" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy deposits_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/deposits_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy deposits_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/deposits_audit_log.csv' CSV HEADER DELIMITER ',';drop table deposits_audit_log;</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17394,10 +17716,10 @@
       </c>
       <c r="T21" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diagnostic_charges TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_charges.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy diagnostic_charges TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_charges.csv' CSV HEADER DELIMITER ',';drop table diagnostic_charges;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>360</v>
       </c>
@@ -17425,7 +17747,7 @@
       </c>
       <c r="T22" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diagnostic_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_charges_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy diagnostic_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_charges_audit_log.csv' CSV HEADER DELIMITER ',';drop table diagnostic_charges_audit_log;</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17453,7 +17775,7 @@
       </c>
       <c r="T23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diagnostic_charges_backup TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_charges_backup.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy diagnostic_charges_backup TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_charges_backup.csv' CSV HEADER DELIMITER ',';drop table diagnostic_charges_backup;</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17481,10 +17803,10 @@
       </c>
       <c r="T24" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diagnostic_reagent_usage TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_reagent_usage.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy diagnostic_reagent_usage TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostic_reagent_usage.csv' CSV HEADER DELIMITER ',';drop table diagnostic_reagent_usage;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>695</v>
       </c>
@@ -17509,7 +17831,7 @@
       </c>
       <c r="T25" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diagnostics TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostics.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy diagnostics TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostics.csv' CSV HEADER DELIMITER ',';drop table diagnostics;</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17567,7 +17889,7 @@
       </c>
       <c r="T26" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diagnostics_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostics_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy diagnostics_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/diagnostics_audit_log.csv' CSV HEADER DELIMITER ',';drop table diagnostics_audit_log;</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17595,7 +17917,7 @@
       </c>
       <c r="T27" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diet_charges TO 'd:/hospital_data/ProgresSQL/data_chk/diet_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy diet_charges TO 'd:/hospital_data/ProgresSQL/data_chk/diet_charges.csv' CSV HEADER DELIMITER ',';drop table diet_charges;</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17623,7 +17945,7 @@
       </c>
       <c r="T28" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy diet_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/diet_prescribed.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy diet_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/diet_prescribed.csv' CSV HEADER DELIMITER ',';drop table diet_prescribed;</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17651,7 +17973,7 @@
       </c>
       <c r="T29" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy discharge_format_detail TO 'd:/hospital_data/ProgresSQL/data_chk/discharge_format_detail.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy discharge_format_detail TO 'd:/hospital_data/ProgresSQL/data_chk/discharge_format_detail.csv' CSV HEADER DELIMITER ',';drop table discharge_format_detail;</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17679,7 +18001,7 @@
       </c>
       <c r="T30" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_charges_backup TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_charges_backup.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy doctor_charges_backup TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_charges_backup.csv' CSV HEADER DELIMITER ',';drop table doctor_charges_backup;</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17707,7 +18029,7 @@
       </c>
       <c r="T31" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_charges_op_backup TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_charges_op_backup.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy doctor_charges_op_backup TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_charges_op_backup.csv' CSV HEADER DELIMITER ',';drop table doctor_charges_op_backup;</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17735,10 +18057,10 @@
       </c>
       <c r="T32" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_consultation TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_consultation.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy doctor_consultation TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_consultation.csv' CSV HEADER DELIMITER ',';drop table doctor_consultation;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>837</v>
       </c>
@@ -17763,10 +18085,10 @@
       </c>
       <c r="T33" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_consultation_charge TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_consultation_charge.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy doctor_consultation_charge TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_consultation_charge.csv' CSV HEADER DELIMITER ',';drop table doctor_consultation_charge;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>627</v>
       </c>
@@ -17791,7 +18113,7 @@
       </c>
       <c r="T34" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_medicine_favourites TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_medicine_favourites.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy doctor_medicine_favourites TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_medicine_favourites.csv' CSV HEADER DELIMITER ',';drop table doctor_medicine_favourites;</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17819,10 +18141,10 @@
       </c>
       <c r="T35" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_notes_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_notes_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy doctor_notes_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_notes_audit_log.csv' CSV HEADER DELIMITER ',';drop table doctor_notes_audit_log;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>247</v>
       </c>
@@ -17847,7 +18169,7 @@
       </c>
       <c r="T36" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_op_consultation_charge TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_op_consultation_charge.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy doctor_op_consultation_charge TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_op_consultation_charge.csv' CSV HEADER DELIMITER ',';drop table doctor_op_consultation_charge;</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17875,7 +18197,7 @@
       </c>
       <c r="T37" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_order_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_order_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy doctor_order_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_order_audit_log.csv' CSV HEADER DELIMITER ',';drop table doctor_order_audit_log;</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17903,10 +18225,10 @@
       </c>
       <c r="T38" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy doctor_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_org_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy doctor_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/doctor_org_details.csv' CSV HEADER DELIMITER ',';drop table doctor_org_details;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>451</v>
       </c>
@@ -17934,10 +18256,10 @@
       </c>
       <c r="T39" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy dyna_package_category_limits TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_category_limits.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>\copy dyna_package_category_limits TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_category_limits.csv' CSV HEADER DELIMITER ',';drop table dyna_package_category_limits;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>677</v>
       </c>
@@ -17962,7 +18284,7 @@
       </c>
       <c r="T40" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy dyna_package_category_limits_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_category_limits_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy dyna_package_category_limits_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_category_limits_audit_log.csv' CSV HEADER DELIMITER ',';drop table dyna_package_category_limits_audit_log;</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -17990,10 +18312,10 @@
       </c>
       <c r="T41" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy dyna_package_charges TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_charges.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy dyna_package_charges TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_charges.csv' CSV HEADER DELIMITER ',';drop table dyna_package_charges;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>373</v>
       </c>
@@ -18018,7 +18340,7 @@
       </c>
       <c r="T42" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy dyna_package_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_charges_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy dyna_package_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_charges_audit_log.csv' CSV HEADER DELIMITER ',';drop table dyna_package_charges_audit_log;</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18046,7 +18368,7 @@
       </c>
       <c r="T43" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy dyna_package_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_org_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy dyna_package_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/dyna_package_org_details.csv' CSV HEADER DELIMITER ',';drop table dyna_package_org_details;</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18074,7 +18396,7 @@
       </c>
       <c r="T44" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy equipement_charges TO 'd:/hospital_data/ProgresSQL/data_chk/equipement_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy equipement_charges TO 'd:/hospital_data/ProgresSQL/data_chk/equipement_charges.csv' CSV HEADER DELIMITER ',';drop table equipement_charges;</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18141,7 +18463,7 @@
       </c>
       <c r="T45" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy estimate_bill TO 'd:/hospital_data/ProgresSQL/data_chk/estimate_bill.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy estimate_bill TO 'd:/hospital_data/ProgresSQL/data_chk/estimate_bill.csv' CSV HEADER DELIMITER ',';drop table estimate_bill;</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18169,7 +18491,7 @@
       </c>
       <c r="T46" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy estimate_charge TO 'd:/hospital_data/ProgresSQL/data_chk/estimate_charge.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy estimate_charge TO 'd:/hospital_data/ProgresSQL/data_chk/estimate_charge.csv' CSV HEADER DELIMITER ',';drop table estimate_charge;</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18206,7 +18528,7 @@
       </c>
       <c r="T47" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy favourite_reports TO 'd:/hospital_data/ProgresSQL/data_chk/favourite_reports.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy favourite_reports TO 'd:/hospital_data/ProgresSQL/data_chk/favourite_reports.csv' CSV HEADER DELIMITER ',';drop table favourite_reports;</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18237,7 +18559,7 @@
       </c>
       <c r="T48" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy fixed_asset_master TO 'd:/hospital_data/ProgresSQL/data_chk/fixed_asset_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy fixed_asset_master TO 'd:/hospital_data/ProgresSQL/data_chk/fixed_asset_master.csv' CSV HEADER DELIMITER ',';drop table fixed_asset_master;</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18265,10 +18587,10 @@
       </c>
       <c r="T49" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy follow_up_details TO 'd:/hospital_data/ProgresSQL/data_chk/follow_up_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy follow_up_details TO 'd:/hospital_data/ProgresSQL/data_chk/follow_up_details.csv' CSV HEADER DELIMITER ',';drop table follow_up_details;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>809</v>
       </c>
@@ -18293,7 +18615,7 @@
       </c>
       <c r="T50" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy growth_chart_reference_data TO 'd:/hospital_data/ProgresSQL/data_chk/growth_chart_reference_data.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy growth_chart_reference_data TO 'd:/hospital_data/ProgresSQL/data_chk/growth_chart_reference_data.csv' CSV HEADER DELIMITER ',';drop table growth_chart_reference_data;</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18321,7 +18643,7 @@
       </c>
       <c r="T51" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy ha_item_code_type TO 'd:/hospital_data/ProgresSQL/data_chk/ha_item_code_type.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy ha_item_code_type TO 'd:/hospital_data/ProgresSQL/data_chk/ha_item_code_type.csv' CSV HEADER DELIMITER ',';drop table ha_item_code_type;</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18358,7 +18680,7 @@
       </c>
       <c r="T52" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy hospital_technical TO 'd:/hospital_data/ProgresSQL/data_chk/hospital_technical.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy hospital_technical TO 'd:/hospital_data/ProgresSQL/data_chk/hospital_technical.csv' CSV HEADER DELIMITER ',';drop table hospital_technical;</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18401,7 +18723,7 @@
       </c>
       <c r="T53" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy icu_bed_charges TO 'd:/hospital_data/ProgresSQL/data_chk/icu_bed_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy icu_bed_charges TO 'd:/hospital_data/ProgresSQL/data_chk/icu_bed_charges.csv' CSV HEADER DELIMITER ',';drop table icu_bed_charges;</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18456,7 +18778,7 @@
       </c>
       <c r="T54" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy ip_bed_details TO 'd:/hospital_data/ProgresSQL/data_chk/ip_bed_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy ip_bed_details TO 'd:/hospital_data/ProgresSQL/data_chk/ip_bed_details.csv' CSV HEADER DELIMITER ',';drop table ip_bed_details;</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18499,10 +18821,10 @@
       </c>
       <c r="T55" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy ip_prescription TO 'd:/hospital_data/ProgresSQL/data_chk/ip_prescription.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy ip_prescription TO 'd:/hospital_data/ProgresSQL/data_chk/ip_prescription.csv' CSV HEADER DELIMITER ',';drop table ip_prescription;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>305</v>
       </c>
@@ -18527,7 +18849,7 @@
       </c>
       <c r="T56" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy item_supplier_prefer_supplier TO 'd:/hospital_data/ProgresSQL/data_chk/item_supplier_prefer_supplier.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy item_supplier_prefer_supplier TO 'd:/hospital_data/ProgresSQL/data_chk/item_supplier_prefer_supplier.csv' CSV HEADER DELIMITER ',';drop table item_supplier_prefer_supplier;</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18555,7 +18877,7 @@
       </c>
       <c r="T57" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy manf_master TO 'd:/hospital_data/ProgresSQL/data_chk/manf_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy manf_master TO 'd:/hospital_data/ProgresSQL/data_chk/manf_master.csv' CSV HEADER DELIMITER ',';drop table manf_master;</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18583,7 +18905,7 @@
       </c>
       <c r="T58" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy medicine_dosage_master TO 'd:/hospital_data/ProgresSQL/data_chk/medicine_dosage_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy medicine_dosage_master TO 'd:/hospital_data/ProgresSQL/data_chk/medicine_dosage_master.csv' CSV HEADER DELIMITER ',';drop table medicine_dosage_master;</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18611,7 +18933,7 @@
       </c>
       <c r="T59" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy message_log TO 'd:/hospital_data/ProgresSQL/data_chk/message_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy message_log TO 'd:/hospital_data/ProgresSQL/data_chk/message_log.csv' CSV HEADER DELIMITER ',';drop table message_log;</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18639,7 +18961,7 @@
       </c>
       <c r="T60" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy message_log_attachments TO 'd:/hospital_data/ProgresSQL/data_chk/message_log_attachments.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy message_log_attachments TO 'd:/hospital_data/ProgresSQL/data_chk/message_log_attachments.csv' CSV HEADER DELIMITER ',';drop table message_log_attachments;</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18667,7 +18989,7 @@
       </c>
       <c r="T61" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy message_recipient TO 'd:/hospital_data/ProgresSQL/data_chk/message_recipient.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy message_recipient TO 'd:/hospital_data/ProgresSQL/data_chk/message_recipient.csv' CSV HEADER DELIMITER ',';drop table message_recipient;</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18695,7 +19017,7 @@
       </c>
       <c r="T62" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy mrd_casefile_attributes TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_casefile_attributes.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy mrd_casefile_attributes TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_casefile_attributes.csv' CSV HEADER DELIMITER ',';drop table mrd_casefile_attributes;</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18723,7 +19045,7 @@
       </c>
       <c r="T63" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy mrd_codes_doctor_master TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_codes_doctor_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy mrd_codes_doctor_master TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_codes_doctor_master.csv' CSV HEADER DELIMITER ',';drop table mrd_codes_doctor_master;</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -18751,7 +19073,7 @@
       </c>
       <c r="T64" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy mrd_codes_master TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_codes_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy mrd_codes_master TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_codes_master.csv' CSV HEADER DELIMITER ',';drop table mrd_codes_master;</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -18779,7 +19101,7 @@
       </c>
       <c r="T65" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy mrd_diagnosis TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_diagnosis.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy mrd_diagnosis TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_diagnosis.csv' CSV HEADER DELIMITER ',';drop table mrd_diagnosis;</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -18822,7 +19144,7 @@
       </c>
       <c r="T66" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>\copy mrd_diagnosis_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_diagnosis_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy mrd_diagnosis_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_diagnosis_audit_log.csv' CSV HEADER DELIMITER ',';drop table mrd_diagnosis_audit_log;</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -18843,20 +19165,20 @@
       <c r="Q67" t="s">
         <v>252</v>
       </c>
-      <c r="R67" s="2" t="str">
+      <c r="R67" s="12" t="str">
         <f t="shared" ref="R67:R130" si="9">CONCATENATE("create temp table ", Q67, "00 as select * from iaim.", Q67, ";")</f>
         <v>create temp table mrd_observations00 as select * from iaim.mrd_observations;</v>
       </c>
-      <c r="S67" s="2" t="str">
+      <c r="S67" s="12" t="str">
         <f t="shared" ref="S67:S130" si="10">CONCATENATE("create table ", Q67, " as select '", Q67, "'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from ", Q67, "00 , jsonb_each_text(to_jsonb(", Q67, "00)) group by key;" )</f>
         <v>create table mrd_observations as select 'mrd_observations'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from mrd_observations00 , jsonb_each_text(to_jsonb(mrd_observations00)) group by key;</v>
       </c>
-      <c r="T67" s="2" t="str">
-        <f t="shared" ref="T67:T130" si="11">CONCATENATE("\copy", " ", Q67, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q67, ".csv' CSV HEADER DELIMITER ',';")</f>
-        <v>\copy mrd_observations TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_observations.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="T67" s="12" t="str">
+        <f t="shared" ref="T67:T130" si="11">CONCATENATE("\copy", " ", Q67, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q67, ".csv' CSV HEADER DELIMITER ',';drop table ", Q67, ";")</f>
+        <v>\copy mrd_observations TO 'd:/hospital_data/ProgresSQL/data_chk/mrd_observations.csv' CSV HEADER DELIMITER ',';drop table mrd_observations;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>401</v>
       </c>
@@ -18881,7 +19203,7 @@
       </c>
       <c r="T68" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy objectname TO 'd:/hospital_data/ProgresSQL/data_chk/objectname.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy objectname TO 'd:/hospital_data/ProgresSQL/data_chk/objectname.csv' CSV HEADER DELIMITER ',';drop table objectname;</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -18909,10 +19231,10 @@
       </c>
       <c r="T69" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy operation_charges TO 'd:/hospital_data/ProgresSQL/data_chk/operation_charges.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy operation_charges TO 'd:/hospital_data/ProgresSQL/data_chk/operation_charges.csv' CSV HEADER DELIMITER ',';drop table operation_charges;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>203</v>
       </c>
@@ -18973,7 +19295,7 @@
       </c>
       <c r="T70" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy operation_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/operation_charges_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy operation_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/operation_charges_audit_log.csv' CSV HEADER DELIMITER ',';drop table operation_charges_audit_log;</v>
       </c>
       <c r="U70" t="s">
         <v>902</v>
@@ -19022,7 +19344,7 @@
       </c>
       <c r="T71" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy operation_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/operation_org_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy operation_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/operation_org_details.csv' CSV HEADER DELIMITER ',';drop table operation_org_details;</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19053,7 +19375,7 @@
       </c>
       <c r="T72" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy other_services_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/other_services_prescribed.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy other_services_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/other_services_prescribed.csv' CSV HEADER DELIMITER ',';drop table other_services_prescribed;</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19084,7 +19406,7 @@
       </c>
       <c r="T73" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy outsource_sample_details TO 'd:/hospital_data/ProgresSQL/data_chk/outsource_sample_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy outsource_sample_details TO 'd:/hospital_data/ProgresSQL/data_chk/outsource_sample_details.csv' CSV HEADER DELIMITER ',';drop table outsource_sample_details;</v>
       </c>
     </row>
     <row r="74" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19115,7 +19437,7 @@
       </c>
       <c r="T74" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy pack_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/pack_org_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy pack_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/pack_org_details.csv' CSV HEADER DELIMITER ',';drop table pack_org_details;</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19143,7 +19465,7 @@
       </c>
       <c r="T75" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy package_charges TO 'd:/hospital_data/ProgresSQL/data_chk/package_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy package_charges TO 'd:/hospital_data/ProgresSQL/data_chk/package_charges.csv' CSV HEADER DELIMITER ',';drop table package_charges;</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19210,7 +19532,7 @@
       </c>
       <c r="T76" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy package_componentdetail TO 'd:/hospital_data/ProgresSQL/data_chk/package_componentdetail.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy package_componentdetail TO 'd:/hospital_data/ProgresSQL/data_chk/package_componentdetail.csv' CSV HEADER DELIMITER ',';drop table package_componentdetail;</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19271,7 +19593,7 @@
       </c>
       <c r="T77" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy package_item_charges TO 'd:/hospital_data/ProgresSQL/data_chk/package_item_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy package_item_charges TO 'd:/hospital_data/ProgresSQL/data_chk/package_item_charges.csv' CSV HEADER DELIMITER ',';drop table package_item_charges;</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19332,7 +19654,7 @@
       </c>
       <c r="T78" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy package_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/package_prescribed.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy package_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/package_prescribed.csv' CSV HEADER DELIMITER ',';drop table package_prescribed;</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -19360,10 +19682,10 @@
       </c>
       <c r="T79" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_activities TO 'd:/hospital_data/ProgresSQL/data_chk/patient_activities.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_activities TO 'd:/hospital_data/ProgresSQL/data_chk/patient_activities.csv' CSV HEADER DELIMITER ',';drop table patient_activities;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -19388,10 +19710,10 @@
       </c>
       <c r="T80" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_activities_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_activities_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_activities_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_activities_audit_log.csv' CSV HEADER DELIMITER ',';drop table patient_activities_audit_log;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>149</v>
       </c>
@@ -19419,10 +19741,10 @@
       </c>
       <c r="T81" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_consultation_field_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_consultation_field_values.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_consultation_field_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_consultation_field_values.csv' CSV HEADER DELIMITER ',';drop table patient_consultation_field_values;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>140</v>
       </c>
@@ -19486,10 +19808,10 @@
       </c>
       <c r="T82" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_demographics_mod TO 'd:/hospital_data/ProgresSQL/data_chk/patient_demographics_mod.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_demographics_mod TO 'd:/hospital_data/ProgresSQL/data_chk/patient_demographics_mod.csv' CSV HEADER DELIMITER ',';drop table patient_demographics_mod;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>35</v>
       </c>
@@ -19514,10 +19836,10 @@
       </c>
       <c r="T83" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_deposits TO 'd:/hospital_data/ProgresSQL/data_chk/patient_deposits.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_deposits TO 'd:/hospital_data/ProgresSQL/data_chk/patient_deposits.csv' CSV HEADER DELIMITER ',';drop table patient_deposits;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -19542,10 +19864,10 @@
       </c>
       <c r="T84" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_deposits_setoff_adjustments TO 'd:/hospital_data/ProgresSQL/data_chk/patient_deposits_setoff_adjustments.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_deposits_setoff_adjustments TO 'd:/hospital_data/ProgresSQL/data_chk/patient_deposits_setoff_adjustments.csv' CSV HEADER DELIMITER ',';drop table patient_deposits_setoff_adjustments;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -19560,20 +19882,23 @@
       <c r="Q85" t="s">
         <v>203</v>
       </c>
-      <c r="R85" s="2" t="str">
+      <c r="R85" s="4" t="str">
         <f t="shared" si="9"/>
         <v>create temp table patient_details00 as select * from iaim.patient_details;</v>
       </c>
-      <c r="S85" s="2" t="str">
+      <c r="S85" s="4" t="str">
         <f t="shared" si="10"/>
         <v>create table patient_details as select 'patient_details'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from patient_details00 , jsonb_each_text(to_jsonb(patient_details00)) group by key;</v>
       </c>
-      <c r="T85" s="2" t="str">
+      <c r="T85" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_details TO 'd:/hospital_data/ProgresSQL/data_chk/patient_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_details TO 'd:/hospital_data/ProgresSQL/data_chk/patient_details.csv' CSV HEADER DELIMITER ',';drop table patient_details;</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>819</v>
       </c>
@@ -19598,10 +19923,10 @@
       </c>
       <c r="T86" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_details_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_details_audit_log.csv' CSV HEADER DELIMITER ',';drop table patient_details_audit_log;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>62</v>
       </c>
@@ -19626,10 +19951,10 @@
       </c>
       <c r="T87" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_discharge TO 'd:/hospital_data/ProgresSQL/data_chk/patient_discharge.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_discharge TO 'd:/hospital_data/ProgresSQL/data_chk/patient_discharge.csv' CSV HEADER DELIMITER ',';drop table patient_discharge;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>384</v>
       </c>
@@ -19656,20 +19981,23 @@
       <c r="Q88" t="s">
         <v>526</v>
       </c>
-      <c r="R88" s="2" t="str">
+      <c r="R88" s="4" t="str">
         <f t="shared" si="9"/>
         <v>create temp table patient_documents00 as select * from iaim.patient_documents;</v>
       </c>
-      <c r="S88" s="2" t="str">
+      <c r="S88" s="4" t="str">
         <f t="shared" si="10"/>
         <v>create table patient_documents as select 'patient_documents'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from patient_documents00 , jsonb_each_text(to_jsonb(patient_documents00)) group by key;</v>
       </c>
-      <c r="T88" s="2" t="str">
+      <c r="T88" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_documents TO 'd:/hospital_data/ProgresSQL/data_chk/patient_documents.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_documents TO 'd:/hospital_data/ProgresSQL/data_chk/patient_documents.csv' CSV HEADER DELIMITER ',';drop table patient_documents;</v>
+      </c>
+      <c r="U88" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>436</v>
       </c>
@@ -19706,10 +20034,10 @@
       </c>
       <c r="T89" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_general_docs TO 'd:/hospital_data/ProgresSQL/data_chk/patient_general_docs.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_general_docs TO 'd:/hospital_data/ProgresSQL/data_chk/patient_general_docs.csv' CSV HEADER DELIMITER ',';drop table patient_general_docs;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>146</v>
       </c>
@@ -19734,10 +20062,10 @@
       </c>
       <c r="T90" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_general_docs_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_general_docs_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_general_docs_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_general_docs_audit_log.csv' CSV HEADER DELIMITER ',';drop table patient_general_docs_audit_log;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>740</v>
       </c>
@@ -19762,10 +20090,10 @@
       </c>
       <c r="T91" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_hvf_doc_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_hvf_doc_values.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_hvf_doc_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_hvf_doc_values.csv' CSV HEADER DELIMITER ',';drop table patient_hvf_doc_values;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>516</v>
       </c>
@@ -19790,10 +20118,10 @@
       </c>
       <c r="T92" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_medicine_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_medicine_prescriptions.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_medicine_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_medicine_prescriptions.csv' CSV HEADER DELIMITER ',';drop table patient_medicine_prescriptions;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>771</v>
       </c>
@@ -19827,10 +20155,10 @@
       </c>
       <c r="T93" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_other_medicine_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_other_medicine_prescriptions.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_other_medicine_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_other_medicine_prescriptions.csv' CSV HEADER DELIMITER ',';drop table patient_other_medicine_prescriptions;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>446</v>
       </c>
@@ -19876,10 +20204,10 @@
       </c>
       <c r="T94" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_other_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_other_prescriptions.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_other_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_other_prescriptions.csv' CSV HEADER DELIMITER ',';drop table patient_other_prescriptions;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>744</v>
       </c>
@@ -19904,10 +20232,10 @@
       </c>
       <c r="T95" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_packages TO 'd:/hospital_data/ProgresSQL/data_chk/patient_packages.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_packages TO 'd:/hospital_data/ProgresSQL/data_chk/patient_packages.csv' CSV HEADER DELIMITER ',';drop table patient_packages;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>286</v>
       </c>
@@ -19932,10 +20260,10 @@
       </c>
       <c r="T96" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_pdf_form_doc_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_pdf_form_doc_values.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>\copy patient_pdf_form_doc_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_pdf_form_doc_values.csv' CSV HEADER DELIMITER ',';drop table patient_pdf_form_doc_values;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>724</v>
       </c>
@@ -19960,7 +20288,7 @@
       </c>
       <c r="T97" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_pdf_form_doc_values_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_pdf_form_doc_values_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_pdf_form_doc_values_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_pdf_form_doc_values_audit_log.csv' CSV HEADER DELIMITER ',';drop table patient_pdf_form_doc_values_audit_log;</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -19988,7 +20316,7 @@
       </c>
       <c r="T98" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_prescription TO 'd:/hospital_data/ProgresSQL/data_chk/patient_prescription.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_prescription TO 'd:/hospital_data/ProgresSQL/data_chk/patient_prescription.csv' CSV HEADER DELIMITER ',';drop table patient_prescription;</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20016,10 +20344,10 @@
       </c>
       <c r="T99" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_registration TO 'd:/hospital_data/ProgresSQL/data_chk/patient_registration.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_registration TO 'd:/hospital_data/ProgresSQL/data_chk/patient_registration.csv' CSV HEADER DELIMITER ',';drop table patient_registration;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
@@ -20044,7 +20372,7 @@
       </c>
       <c r="T100" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_registration_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_registration_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_registration_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/patient_registration_audit_log.csv' CSV HEADER DELIMITER ',';drop table patient_registration_audit_log;</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20072,10 +20400,10 @@
       </c>
       <c r="T101" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_section_details TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_section_details TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_details.csv' CSV HEADER DELIMITER ',';drop table patient_section_details;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>781</v>
       </c>
@@ -20100,7 +20428,7 @@
       </c>
       <c r="T102" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_section_details_orig TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_details_orig.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_section_details_orig TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_details_orig.csv' CSV HEADER DELIMITER ',';drop table patient_section_details_orig;</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20128,10 +20456,10 @@
       </c>
       <c r="T103" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_section_forms TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_forms.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_section_forms TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_forms.csv' CSV HEADER DELIMITER ',';drop table patient_section_forms;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>613</v>
       </c>
@@ -20159,7 +20487,7 @@
       </c>
       <c r="T104" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_section_image_details TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_image_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_section_image_details TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_image_details.csv' CSV HEADER DELIMITER ',';drop table patient_section_image_details;</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20187,10 +20515,10 @@
       </c>
       <c r="T105" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_section_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_values.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy patient_section_values TO 'd:/hospital_data/ProgresSQL/data_chk/patient_section_values.csv' CSV HEADER DELIMITER ',';drop table patient_section_values;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
@@ -20215,7 +20543,7 @@
       </c>
       <c r="T106" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_service_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_service_prescriptions.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_service_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_service_prescriptions.csv' CSV HEADER DELIMITER ',';drop table patient_service_prescriptions;</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20243,7 +20571,7 @@
       </c>
       <c r="T107" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy patient_test_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_test_prescriptions.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy patient_test_prescriptions TO 'd:/hospital_data/ProgresSQL/data_chk/patient_test_prescriptions.csv' CSV HEADER DELIMITER ',';drop table patient_test_prescriptions;</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20292,10 +20620,10 @@
       </c>
       <c r="T108" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy preauth_prescription TO 'd:/hospital_data/ProgresSQL/data_chk/preauth_prescription.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy preauth_prescription TO 'd:/hospital_data/ProgresSQL/data_chk/preauth_prescription.csv' CSV HEADER DELIMITER ',';drop table preauth_prescription;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>132</v>
       </c>
@@ -20359,10 +20687,10 @@
       </c>
       <c r="T109" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy preauth_prescription_activities TO 'd:/hospital_data/ProgresSQL/data_chk/preauth_prescription_activities.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy preauth_prescription_activities TO 'd:/hospital_data/ProgresSQL/data_chk/preauth_prescription_activities.csv' CSV HEADER DELIMITER ',';drop table preauth_prescription_activities;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>57</v>
       </c>
@@ -20387,7 +20715,7 @@
       </c>
       <c r="T110" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy prescribed_medicines_master TO 'd:/hospital_data/ProgresSQL/data_chk/prescribed_medicines_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy prescribed_medicines_master TO 'd:/hospital_data/ProgresSQL/data_chk/prescribed_medicines_master.csv' CSV HEADER DELIMITER ',';drop table prescribed_medicines_master;</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20415,7 +20743,7 @@
       </c>
       <c r="T111" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy progress_notes TO 'd:/hospital_data/ProgresSQL/data_chk/progress_notes.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy progress_notes TO 'd:/hospital_data/ProgresSQL/data_chk/progress_notes.csv' CSV HEADER DELIMITER ',';drop table progress_notes;</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20443,7 +20771,7 @@
       </c>
       <c r="T112" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy registration_charges TO 'd:/hospital_data/ProgresSQL/data_chk/registration_charges.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy registration_charges TO 'd:/hospital_data/ProgresSQL/data_chk/registration_charges.csv' CSV HEADER DELIMITER ',';drop table registration_charges;</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20471,10 +20799,10 @@
       </c>
       <c r="T113" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy sample_collection TO 'd:/hospital_data/ProgresSQL/data_chk/sample_collection.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy sample_collection TO 'd:/hospital_data/ProgresSQL/data_chk/sample_collection.csv' CSV HEADER DELIMITER ',';drop table sample_collection;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>759</v>
       </c>
@@ -20499,7 +20827,7 @@
       </c>
       <c r="T114" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy sample_collection_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/sample_collection_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy sample_collection_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/sample_collection_audit_log.csv' CSV HEADER DELIMITER ',';drop table sample_collection_audit_log;</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20527,10 +20855,10 @@
       </c>
       <c r="T115" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy sch_resource_availability TO 'd:/hospital_data/ProgresSQL/data_chk/sch_resource_availability.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy sch_resource_availability TO 'd:/hospital_data/ProgresSQL/data_chk/sch_resource_availability.csv' CSV HEADER DELIMITER ',';drop table sch_resource_availability;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>718</v>
       </c>
@@ -20555,10 +20883,10 @@
       </c>
       <c r="T116" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy sch_resource_availability_details TO 'd:/hospital_data/ProgresSQL/data_chk/sch_resource_availability_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy sch_resource_availability_details TO 'd:/hospital_data/ProgresSQL/data_chk/sch_resource_availability_details.csv' CSV HEADER DELIMITER ',';drop table sch_resource_availability_details;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>220</v>
       </c>
@@ -20583,10 +20911,10 @@
       </c>
       <c r="T117" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy scheduler_appointment_items TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointment_items.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>\copy scheduler_appointment_items TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointment_items.csv' CSV HEADER DELIMITER ',';drop table scheduler_appointment_items;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>564</v>
       </c>
@@ -20611,7 +20939,7 @@
       </c>
       <c r="T118" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy scheduler_appointment_items_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointment_items_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy scheduler_appointment_items_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointment_items_audit_log.csv' CSV HEADER DELIMITER ',';drop table scheduler_appointment_items_audit_log;</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20639,10 +20967,10 @@
       </c>
       <c r="T119" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy scheduler_appointments TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointments.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy scheduler_appointments TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointments.csv' CSV HEADER DELIMITER ',';drop table scheduler_appointments;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>784</v>
       </c>
@@ -20667,7 +20995,7 @@
       </c>
       <c r="T120" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy scheduler_appointments_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointments_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy scheduler_appointments_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/scheduler_appointments_audit_log.csv' CSV HEADER DELIMITER ',';drop table scheduler_appointments_audit_log;</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20695,10 +21023,10 @@
       </c>
       <c r="T121" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy screen_rights TO 'd:/hospital_data/ProgresSQL/data_chk/screen_rights.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy screen_rights TO 'd:/hospital_data/ProgresSQL/data_chk/screen_rights.csv' CSV HEADER DELIMITER ',';drop table screen_rights;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>343</v>
       </c>
@@ -20723,7 +21051,7 @@
       </c>
       <c r="T122" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy secondary_complaints_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/secondary_complaints_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy secondary_complaints_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/secondary_complaints_audit_log.csv' CSV HEADER DELIMITER ',';drop table secondary_complaints_audit_log;</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20751,7 +21079,7 @@
       </c>
       <c r="T123" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy section_field_options TO 'd:/hospital_data/ProgresSQL/data_chk/section_field_options.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy section_field_options TO 'd:/hospital_data/ProgresSQL/data_chk/section_field_options.csv' CSV HEADER DELIMITER ',';drop table section_field_options;</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20779,7 +21107,7 @@
       </c>
       <c r="T124" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy service_consumable_usage TO 'd:/hospital_data/ProgresSQL/data_chk/service_consumable_usage.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy service_consumable_usage TO 'd:/hospital_data/ProgresSQL/data_chk/service_consumable_usage.csv' CSV HEADER DELIMITER ',';drop table service_consumable_usage;</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20807,7 +21135,7 @@
       </c>
       <c r="T125" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy service_documents TO 'd:/hospital_data/ProgresSQL/data_chk/service_documents.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy service_documents TO 'd:/hospital_data/ProgresSQL/data_chk/service_documents.csv' CSV HEADER DELIMITER ',';drop table service_documents;</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20835,10 +21163,10 @@
       </c>
       <c r="T126" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy service_master_charges TO 'd:/hospital_data/ProgresSQL/data_chk/service_master_charges.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy service_master_charges TO 'd:/hospital_data/ProgresSQL/data_chk/service_master_charges.csv' CSV HEADER DELIMITER ',';drop table service_master_charges;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>321</v>
       </c>
@@ -20863,10 +21191,10 @@
       </c>
       <c r="T127" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy service_master_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/service_master_charges_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy service_master_charges_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/service_master_charges_audit_log.csv' CSV HEADER DELIMITER ',';drop table service_master_charges_audit_log;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>532</v>
       </c>
@@ -20891,7 +21219,7 @@
       </c>
       <c r="T128" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy service_master_charges_backup TO 'd:/hospital_data/ProgresSQL/data_chk/service_master_charges_backup.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy service_master_charges_backup TO 'd:/hospital_data/ProgresSQL/data_chk/service_master_charges_backup.csv' CSV HEADER DELIMITER ',';drop table service_master_charges_backup;</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20919,10 +21247,10 @@
       </c>
       <c r="T129" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy service_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/service_org_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy service_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/service_org_details.csv' CSV HEADER DELIMITER ',';drop table service_org_details;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>309</v>
       </c>
@@ -20947,7 +21275,7 @@
       </c>
       <c r="T130" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>\copy services TO 'd:/hospital_data/ProgresSQL/data_chk/services.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy services TO 'd:/hospital_data/ProgresSQL/data_chk/services.csv' CSV HEADER DELIMITER ',';drop table services;</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -20974,8 +21302,8 @@
         <v>create table services_audit_log as select 'services_audit_log'::text as tblname, key, count(distinct value) as DistVal, count(value) as NonMissVal, array_agg(distinct value) from services_audit_log00 , jsonb_each_text(to_jsonb(services_audit_log00)) group by key;</v>
       </c>
       <c r="T131" s="2" t="str">
-        <f t="shared" ref="T131:T184" si="18">CONCATENATE("\copy", " ", Q131, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q131, ".csv' CSV HEADER DELIMITER ',';")</f>
-        <v>\copy services_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/services_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <f t="shared" ref="T131:T184" si="18">CONCATENATE("\copy", " ", Q131, " TO 'd:/hospital_data/ProgresSQL/data_chk/", Q131, ".csv' CSV HEADER DELIMITER ',';drop table ", Q131, ";")</f>
+        <v>\copy services_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/services_audit_log.csv' CSV HEADER DELIMITER ',';drop table services_audit_log;</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21003,7 +21331,7 @@
       </c>
       <c r="T132" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy services_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/services_prescribed.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy services_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/services_prescribed.csv' CSV HEADER DELIMITER ',';drop table services_prescribed;</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21031,7 +21359,7 @@
       </c>
       <c r="T133" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy stock_issue_details TO 'd:/hospital_data/ProgresSQL/data_chk/stock_issue_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy stock_issue_details TO 'd:/hospital_data/ProgresSQL/data_chk/stock_issue_details.csv' CSV HEADER DELIMITER ',';drop table stock_issue_details;</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21059,7 +21387,7 @@
       </c>
       <c r="T134" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy stock_issue_main TO 'd:/hospital_data/ProgresSQL/data_chk/stock_issue_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy stock_issue_main TO 'd:/hospital_data/ProgresSQL/data_chk/stock_issue_main.csv' CSV HEADER DELIMITER ',';drop table stock_issue_main;</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21087,7 +21415,7 @@
       </c>
       <c r="T135" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_adj_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_adj_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_adj_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_adj_details.csv' CSV HEADER DELIMITER ',';drop table store_adj_details;</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21115,7 +21443,7 @@
       </c>
       <c r="T136" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_adj_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_adj_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_adj_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_adj_main.csv' CSV HEADER DELIMITER ',';drop table store_adj_main;</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21143,7 +21471,7 @@
       </c>
       <c r="T137" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_checkpoint_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_checkpoint_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_checkpoint_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_checkpoint_details.csv' CSV HEADER DELIMITER ',';drop table store_checkpoint_details;</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21171,7 +21499,7 @@
       </c>
       <c r="T138" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_estimate_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_estimate_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_estimate_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_estimate_details.csv' CSV HEADER DELIMITER ',';drop table store_estimate_details;</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21199,7 +21527,7 @@
       </c>
       <c r="T139" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_grn_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_grn_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_grn_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_grn_details.csv' CSV HEADER DELIMITER ',';drop table store_grn_details;</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21227,7 +21555,7 @@
       </c>
       <c r="T140" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_grn_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_grn_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_grn_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_grn_main.csv' CSV HEADER DELIMITER ',';drop table store_grn_main;</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21255,7 +21583,7 @@
       </c>
       <c r="T141" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_indent_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_indent_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_indent_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_indent_details.csv' CSV HEADER DELIMITER ',';drop table store_indent_details;</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21316,7 +21644,7 @@
       </c>
       <c r="T142" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_indent_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_indent_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_indent_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_indent_main.csv' CSV HEADER DELIMITER ',';drop table store_indent_main;</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21344,7 +21672,7 @@
       </c>
       <c r="T143" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_invoice TO 'd:/hospital_data/ProgresSQL/data_chk/store_invoice.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_invoice TO 'd:/hospital_data/ProgresSQL/data_chk/store_invoice.csv' CSV HEADER DELIMITER ',';drop table store_invoice;</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21387,10 +21715,10 @@
       </c>
       <c r="T144" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_item_batch_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_batch_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy store_item_batch_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_batch_details.csv' CSV HEADER DELIMITER ',';drop table store_item_batch_details;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>438</v>
       </c>
@@ -21415,7 +21743,7 @@
       </c>
       <c r="T145" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_item_batch_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_batch_details_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_item_batch_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_batch_details_audit_log.csv' CSV HEADER DELIMITER ',';drop table store_item_batch_details_audit_log;</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21461,7 +21789,7 @@
       </c>
       <c r="T146" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_item_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_item_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_details.csv' CSV HEADER DELIMITER ',';drop table store_item_details;</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21510,10 +21838,10 @@
       </c>
       <c r="T147" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_item_lot_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_lot_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy store_item_lot_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_item_lot_details.csv' CSV HEADER DELIMITER ',';drop table store_item_lot_details;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>195</v>
       </c>
@@ -21577,7 +21905,7 @@
       </c>
       <c r="T148" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_patient_indent_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_patient_indent_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_patient_indent_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_patient_indent_details.csv' CSV HEADER DELIMITER ',';drop table store_patient_indent_details;</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21605,10 +21933,10 @@
       </c>
       <c r="T149" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_patient_indent_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_patient_indent_main.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy store_patient_indent_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_patient_indent_main.csv' CSV HEADER DELIMITER ',';drop table store_patient_indent_main;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>808</v>
       </c>
@@ -21633,7 +21961,7 @@
       </c>
       <c r="T150" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_po TO 'd:/hospital_data/ProgresSQL/data_chk/store_po.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_po TO 'd:/hospital_data/ProgresSQL/data_chk/store_po.csv' CSV HEADER DELIMITER ',';drop table store_po;</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21661,7 +21989,7 @@
       </c>
       <c r="T151" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_po_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_po_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_po_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_po_main.csv' CSV HEADER DELIMITER ',';drop table store_po_main;</v>
       </c>
     </row>
     <row r="152" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21689,10 +22017,10 @@
       </c>
       <c r="T152" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_po_main_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/store_po_main_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy store_po_main_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/store_po_main_audit_log.csv' CSV HEADER DELIMITER ',';drop table store_po_main_audit_log;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>302</v>
       </c>
@@ -21717,7 +22045,7 @@
       </c>
       <c r="T153" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_reagent_usage_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_reagent_usage_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_reagent_usage_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_reagent_usage_details.csv' CSV HEADER DELIMITER ',';drop table store_reagent_usage_details;</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21754,7 +22082,7 @@
       </c>
       <c r="T154" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_reagent_usage_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_reagent_usage_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_reagent_usage_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_reagent_usage_main.csv' CSV HEADER DELIMITER ',';drop table store_reagent_usage_main;</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21771,7 +22099,7 @@
       </c>
       <c r="T155" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_reorder_levels TO 'd:/hospital_data/ProgresSQL/data_chk/store_reorder_levels.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_reorder_levels TO 'd:/hospital_data/ProgresSQL/data_chk/store_reorder_levels.csv' CSV HEADER DELIMITER ',';drop table store_reorder_levels;</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21788,7 +22116,7 @@
       </c>
       <c r="T156" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_retail_customers TO 'd:/hospital_data/ProgresSQL/data_chk/store_retail_customers.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_retail_customers TO 'd:/hospital_data/ProgresSQL/data_chk/store_retail_customers.csv' CSV HEADER DELIMITER ',';drop table store_retail_customers;</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21805,7 +22133,7 @@
       </c>
       <c r="T157" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_sales_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_sales_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_sales_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_sales_details.csv' CSV HEADER DELIMITER ',';drop table store_sales_details;</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21822,7 +22150,7 @@
       </c>
       <c r="T158" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_sales_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_sales_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_sales_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_sales_main.csv' CSV HEADER DELIMITER ',';drop table store_sales_main;</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="60" x14ac:dyDescent="0.25">
@@ -21839,10 +22167,10 @@
       </c>
       <c r="T159" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_stock_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_stock_details.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy store_stock_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_stock_details.csv' CSV HEADER DELIMITER ',';drop table store_stock_details;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="Q160" t="s">
         <v>84</v>
       </c>
@@ -21856,10 +22184,10 @@
       </c>
       <c r="T160" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_stock_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/store_stock_details_audit_log.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="161" spans="17:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy store_stock_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/store_stock_details_audit_log.csv' CSV HEADER DELIMITER ',';drop table store_stock_details_audit_log;</v>
+      </c>
+    </row>
+    <row r="161" spans="17:20" ht="75" x14ac:dyDescent="0.25">
       <c r="Q161" t="s">
         <v>138</v>
       </c>
@@ -21873,7 +22201,7 @@
       </c>
       <c r="T161" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_transaction_lot_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_transaction_lot_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_transaction_lot_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_transaction_lot_details.csv' CSV HEADER DELIMITER ',';drop table store_transaction_lot_details;</v>
       </c>
     </row>
     <row r="162" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -21890,7 +22218,7 @@
       </c>
       <c r="T162" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_transfer_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_transfer_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_transfer_details TO 'd:/hospital_data/ProgresSQL/data_chk/store_transfer_details.csv' CSV HEADER DELIMITER ',';drop table store_transfer_details;</v>
       </c>
     </row>
     <row r="163" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -21907,7 +22235,7 @@
       </c>
       <c r="T163" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy store_transfer_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_transfer_main.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy store_transfer_main TO 'd:/hospital_data/ProgresSQL/data_chk/store_transfer_main.csv' CSV HEADER DELIMITER ',';drop table store_transfer_main;</v>
       </c>
     </row>
     <row r="164" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -21924,7 +22252,7 @@
       </c>
       <c r="T164" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy supplier_master TO 'd:/hospital_data/ProgresSQL/data_chk/supplier_master.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy supplier_master TO 'd:/hospital_data/ProgresSQL/data_chk/supplier_master.csv' CSV HEADER DELIMITER ',';drop table supplier_master;</v>
       </c>
     </row>
     <row r="165" spans="17:20" ht="90" x14ac:dyDescent="0.25">
@@ -21941,10 +22269,10 @@
       </c>
       <c r="T165" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy temp_stock_item_batch_with_diff_mrp_expdt TO 'd:/hospital_data/ProgresSQL/data_chk/temp_stock_item_batch_with_diff_mrp_expdt.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="166" spans="17:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy temp_stock_item_batch_with_diff_mrp_expdt TO 'd:/hospital_data/ProgresSQL/data_chk/temp_stock_item_batch_with_diff_mrp_expdt.csv' CSV HEADER DELIMITER ',';drop table temp_stock_item_batch_with_diff_mrp_expdt;</v>
+      </c>
+    </row>
+    <row r="166" spans="17:20" ht="45" x14ac:dyDescent="0.25">
       <c r="Q166" t="s">
         <v>87</v>
       </c>
@@ -21958,7 +22286,7 @@
       </c>
       <c r="T166" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_details TO 'd:/hospital_data/ProgresSQL/data_chk/test_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy test_details TO 'd:/hospital_data/ProgresSQL/data_chk/test_details.csv' CSV HEADER DELIMITER ',';drop table test_details;</v>
       </c>
     </row>
     <row r="167" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -21975,7 +22303,7 @@
       </c>
       <c r="T167" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/test_details_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy test_details_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/test_details_audit_log.csv' CSV HEADER DELIMITER ',';drop table test_details_audit_log;</v>
       </c>
     </row>
     <row r="168" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -21992,7 +22320,7 @@
       </c>
       <c r="T168" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/test_org_details.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy test_org_details TO 'd:/hospital_data/ProgresSQL/data_chk/test_org_details.csv' CSV HEADER DELIMITER ',';drop table test_org_details;</v>
       </c>
     </row>
     <row r="169" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22009,10 +22337,10 @@
       </c>
       <c r="T169" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_results_master TO 'd:/hospital_data/ProgresSQL/data_chk/test_results_master.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="170" spans="17:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy test_results_master TO 'd:/hospital_data/ProgresSQL/data_chk/test_results_master.csv' CSV HEADER DELIMITER ',';drop table test_results_master;</v>
+      </c>
+    </row>
+    <row r="170" spans="17:20" ht="75" x14ac:dyDescent="0.25">
       <c r="Q170" t="s">
         <v>438</v>
       </c>
@@ -22026,7 +22354,7 @@
       </c>
       <c r="T170" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_visit_report_signatures TO 'd:/hospital_data/ProgresSQL/data_chk/test_visit_report_signatures.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy test_visit_report_signatures TO 'd:/hospital_data/ProgresSQL/data_chk/test_visit_report_signatures.csv' CSV HEADER DELIMITER ',';drop table test_visit_report_signatures;</v>
       </c>
     </row>
     <row r="171" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22043,10 +22371,10 @@
       </c>
       <c r="T171" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_visit_reports TO 'd:/hospital_data/ProgresSQL/data_chk/test_visit_reports.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="172" spans="17:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy test_visit_reports TO 'd:/hospital_data/ProgresSQL/data_chk/test_visit_reports.csv' CSV HEADER DELIMITER ',';drop table test_visit_reports;</v>
+      </c>
+    </row>
+    <row r="172" spans="17:20" ht="75" x14ac:dyDescent="0.25">
       <c r="Q172" t="s">
         <v>104</v>
       </c>
@@ -22060,7 +22388,7 @@
       </c>
       <c r="T172" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy test_visit_reports_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/test_visit_reports_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy test_visit_reports_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/test_visit_reports_audit_log.csv' CSV HEADER DELIMITER ',';drop table test_visit_reports_audit_log;</v>
       </c>
     </row>
     <row r="173" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22077,7 +22405,7 @@
       </c>
       <c r="T173" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy tests_conducted TO 'd:/hospital_data/ProgresSQL/data_chk/tests_conducted.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy tests_conducted TO 'd:/hospital_data/ProgresSQL/data_chk/tests_conducted.csv' CSV HEADER DELIMITER ',';drop table tests_conducted;</v>
       </c>
     </row>
     <row r="174" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22094,7 +22422,7 @@
       </c>
       <c r="T174" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy tests_conducted_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/tests_conducted_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy tests_conducted_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/tests_conducted_audit_log.csv' CSV HEADER DELIMITER ',';drop table tests_conducted_audit_log;</v>
       </c>
     </row>
     <row r="175" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22111,7 +22439,7 @@
       </c>
       <c r="T175" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy tests_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/tests_prescribed.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy tests_prescribed TO 'd:/hospital_data/ProgresSQL/data_chk/tests_prescribed.csv' CSV HEADER DELIMITER ',';drop table tests_prescribed;</v>
       </c>
     </row>
     <row r="176" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22128,7 +22456,7 @@
       </c>
       <c r="T176" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy tests_prescribed_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/tests_prescribed_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy tests_prescribed_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/tests_prescribed_audit_log.csv' CSV HEADER DELIMITER ',';drop table tests_prescribed_audit_log;</v>
       </c>
     </row>
     <row r="177" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22145,10 +22473,10 @@
       </c>
       <c r="T177" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy theatre_charges TO 'd:/hospital_data/ProgresSQL/data_chk/theatre_charges.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="178" spans="17:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy theatre_charges TO 'd:/hospital_data/ProgresSQL/data_chk/theatre_charges.csv' CSV HEADER DELIMITER ',';drop table theatre_charges;</v>
+      </c>
+    </row>
+    <row r="178" spans="17:20" ht="45" x14ac:dyDescent="0.25">
       <c r="Q178" t="s">
         <v>808</v>
       </c>
@@ -22162,7 +22490,7 @@
       </c>
       <c r="T178" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy u_user TO 'd:/hospital_data/ProgresSQL/data_chk/u_user.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy u_user TO 'd:/hospital_data/ProgresSQL/data_chk/u_user.csv' CSV HEADER DELIMITER ',';drop table u_user;</v>
       </c>
     </row>
     <row r="179" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22179,7 +22507,7 @@
       </c>
       <c r="T179" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy url_action_rights TO 'd:/hospital_data/ProgresSQL/data_chk/url_action_rights.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy url_action_rights TO 'd:/hospital_data/ProgresSQL/data_chk/url_action_rights.csv' CSV HEADER DELIMITER ',';drop table url_action_rights;</v>
       </c>
     </row>
     <row r="180" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22196,10 +22524,10 @@
       </c>
       <c r="T180" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy user_services_depts TO 'd:/hospital_data/ProgresSQL/data_chk/user_services_depts.csv' CSV HEADER DELIMITER ',';</v>
-      </c>
-    </row>
-    <row r="181" spans="17:20" ht="60" x14ac:dyDescent="0.25">
+        <v>\copy user_services_depts TO 'd:/hospital_data/ProgresSQL/data_chk/user_services_depts.csv' CSV HEADER DELIMITER ',';drop table user_services_depts;</v>
+      </c>
+    </row>
+    <row r="181" spans="17:20" ht="45" x14ac:dyDescent="0.25">
       <c r="Q181" t="s">
         <v>302</v>
       </c>
@@ -22213,7 +22541,7 @@
       </c>
       <c r="T181" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy visit_vitals TO 'd:/hospital_data/ProgresSQL/data_chk/visit_vitals.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy visit_vitals TO 'd:/hospital_data/ProgresSQL/data_chk/visit_vitals.csv' CSV HEADER DELIMITER ',';drop table visit_vitals;</v>
       </c>
     </row>
     <row r="182" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22230,7 +22558,7 @@
       </c>
       <c r="T182" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy visit_vitals_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/visit_vitals_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy visit_vitals_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/visit_vitals_audit_log.csv' CSV HEADER DELIMITER ',';drop table visit_vitals_audit_log;</v>
       </c>
     </row>
     <row r="183" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22247,7 +22575,7 @@
       </c>
       <c r="T183" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy vital_reading TO 'd:/hospital_data/ProgresSQL/data_chk/vital_reading.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy vital_reading TO 'd:/hospital_data/ProgresSQL/data_chk/vital_reading.csv' CSV HEADER DELIMITER ',';drop table vital_reading;</v>
       </c>
     </row>
     <row r="184" spans="17:20" ht="60" x14ac:dyDescent="0.25">
@@ -22264,7 +22592,7 @@
       </c>
       <c r="T184" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>\copy vital_reading_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/vital_reading_audit_log.csv' CSV HEADER DELIMITER ',';</v>
+        <v>\copy vital_reading_audit_log TO 'd:/hospital_data/ProgresSQL/data_chk/vital_reading_audit_log.csv' CSV HEADER DELIMITER ',';drop table vital_reading_audit_log;</v>
       </c>
     </row>
   </sheetData>
@@ -22273,15 +22601,16 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22367,8 +22696,401 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>781</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>1078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:Q33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>2341335</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>2341335</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>547771</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="14" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H28" t="s">
+        <v>850</v>
+      </c>
+      <c r="I28" t="s">
+        <v>851</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H30" t="s">
+        <v>989</v>
+      </c>
+      <c r="K30" t="s">
+        <v>952</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H31" t="s">
+        <v>989</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M31" t="s">
+        <v>882</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H32" t="s">
+        <v>989</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M32" t="s">
+        <v>882</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M33" t="s">
+        <v>882</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>